--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,25 +229,25 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">F4</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">H4</f>
@@ -260,11 +260,11 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5+C4</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">F5</f>
@@ -281,11 +281,11 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6+C5</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6</f>
@@ -302,11 +302,11 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -323,11 +323,11 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -344,11 +344,11 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -365,11 +365,11 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -386,11 +386,11 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -407,11 +407,11 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -428,11 +428,11 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -229,25 +229,25 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">F4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">H4</f>
@@ -260,11 +260,11 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5+C4</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">F5</f>
@@ -281,11 +281,11 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6+C5</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6</f>
@@ -302,11 +302,11 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -323,11 +323,11 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -344,11 +344,11 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -365,11 +365,11 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -386,11 +386,11 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -407,11 +407,11 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -428,11 +428,11 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -258,9 +258,12 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C5" s="0" t="n">
         <f aca="false">B5+C4</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
@@ -281,7 +284,7 @@
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6+C5</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
@@ -302,7 +305,7 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
@@ -323,7 +326,7 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
@@ -344,7 +347,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
@@ -365,7 +368,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
@@ -386,7 +389,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
@@ -407,7 +410,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
@@ -428,7 +431,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -265,13 +265,19 @@
         <f aca="false">B5+C4</f>
         <v>27</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="E5" s="0" t="n">
         <f aca="false">D5+E4</f>
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">F5</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">H5</f>
@@ -288,7 +294,7 @@
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6</f>
@@ -309,7 +315,7 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -330,7 +336,7 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -351,7 +357,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -372,7 +378,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -393,7 +399,7 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -414,7 +420,7 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -435,7 +441,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,9 +288,12 @@
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C6" s="0" t="n">
         <f aca="false">B6+C5</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
@@ -311,7 +314,7 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
@@ -332,7 +335,7 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
@@ -353,7 +356,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
@@ -374,7 +377,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
@@ -395,7 +398,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
@@ -416,7 +419,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
@@ -437,7 +440,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -295,9 +295,12 @@
         <f aca="false">B6+C5</f>
         <v>41</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="E6" s="0" t="n">
         <f aca="false">D6+E5</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">F6</f>
@@ -318,7 +321,7 @@
       </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -339,7 +342,7 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -360,7 +363,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -381,7 +384,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -402,7 +405,7 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -423,7 +426,7 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -444,7 +447,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -319,9 +319,12 @@
         <f aca="false">B7+C6</f>
         <v>41</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="E7" s="0" t="n">
         <f aca="false">D7+E6</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">F7</f>
@@ -342,7 +345,7 @@
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -363,7 +366,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -384,7 +387,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -405,7 +408,7 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -426,7 +429,7 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -447,7 +450,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,9 +315,12 @@
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="C7" s="0" t="n">
         <f aca="false">B7+C6</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>14</v>
@@ -341,7 +344,7 @@
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
@@ -362,7 +365,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
@@ -383,7 +386,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
@@ -404,7 +407,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
@@ -425,7 +428,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
@@ -446,7 +449,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,9 +346,12 @@
         <f aca="false">B8+C7</f>
         <v>51</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="E8" s="0" t="n">
         <f aca="false">D8+E7</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G8" s="0" t="n">
         <f aca="false">F8</f>
@@ -369,7 +372,7 @@
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G9" s="0" t="n">
         <f aca="false">F9</f>
@@ -390,7 +393,7 @@
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="n">
         <f aca="false">F10</f>
@@ -411,7 +414,7 @@
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G11" s="0" t="n">
         <f aca="false">F11</f>
@@ -432,7 +435,7 @@
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
@@ -453,7 +456,7 @@
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,9 +342,12 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="C8" s="0" t="n">
         <f aca="false">B8+C7</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>17</v>
@@ -368,7 +371,7 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="false">D9+E8</f>
@@ -389,7 +392,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
@@ -410,7 +413,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
@@ -431,7 +434,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
@@ -452,7 +455,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -378,9 +378,12 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="C9" s="0" t="n">
         <f aca="false">B9+C8</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>14</v>
@@ -404,7 +407,7 @@
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">B10+C9</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="false">D10+E9</f>
@@ -425,7 +428,7 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">B11+C10</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="false">D11+E10</f>
@@ -446,7 +449,7 @@
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
@@ -467,7 +470,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -170,8 +170,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,17 +468,26 @@
       <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C12" s="0" t="n">
         <f aca="false">B12+C11</f>
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="false">D12+E11</f>
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G12" s="0" t="n">
         <f aca="false">F12</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">H12</f>
@@ -489,17 +498,26 @@
       <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>108</v>
+        <v>136</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="false">D13+E12</f>
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G13" s="0" t="n">
         <f aca="false">F13</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">H13</f>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -170,8 +170,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,11 +499,11 @@
         <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">B13+C12</f>
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10</v>
